--- a/biology/Botanique/Ipomoea_×leucantha/Ipomoea_×leucantha.xlsx
+++ b/biology/Botanique/Ipomoea_×leucantha/Ipomoea_×leucantha.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ipomoea_%C3%97leucantha</t>
+          <t>Ipomoea_×leucantha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ipomoea ×leucantha est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire d'Amérique du Nord (États-Unis, Mexique). C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum sect. Eriospermum)[2]. Cette espèce diploïde (2n=2x=30) est un parent sauvage de la patate douce (Ipomoea batatas).
-Selon Austin (1978), Ipomoea ×leucantha est considérée comme d'origine hybride issue d'un croisement stable : Ipomoea cordatotriloba × Ipomoea lacunosa[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ipomoea ×leucantha est une espèce de plantes dicotylédones de la famille des Convolvulaceae, originaire d'Amérique du Nord (États-Unis, Mexique). C'est l'une des 13 espèces sauvages classées dans la série Batatas (Ipomoea subg. Eriospermum sect. Eriospermum). Cette espèce diploïde (2n=2x=30) est un parent sauvage de la patate douce (Ipomoea batatas).
+Selon Austin (1978), Ipomoea ×leucantha est considérée comme d'origine hybride issue d'un croisement stable : Ipomoea cordatotriloba × Ipomoea lacunosa.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ipomoea_%C3%97leucantha</t>
+          <t>Ipomoea_×leucantha</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea ×leucantha  est une plante herbacée annuelle, mince, au port d'abord dressé, puis volubile ou rampante, aux racines fibreuses. La tige, de 1 à 2 m de long, est glabre ou poilue, légèrement ramifiée. Les feuilles, glabres ou poilues, sont portées par  un  pétiole de 4 à 5 cm de long. Le limbe de forme ovale, parfois trilobé ou subtrilobé, glabre, de  3 à 5 cm de long sur 2 à 4 cm de large, est acuminé et  fréquemment mucroné à l'apex, auriculé à cordé à la base.
-L'inflorescence sous forme de cyme dichasiale ou monochasiale, portée par un pédoncule principal de 1,8 à 4,5 cm de long, regroupe de 1 à 5 fleurs. Les sépales inégaux, cartacés, verts ou violets, elliptiques à sublancéolés, ont 6 à 8 mm de long sur 2 à 3 mm de large. Les sépales externes, pileux, à 3 nervures saillantes, sont plus courts que les sépales internes, glabres et  fréquemment ciliés. La corolle, de couleur lilas, infundibuliforme à subcampanulée, fait de 1,2 à 1,4 cm de long. Les étamines, presque égales, incluses, de 7 à 9 mm de long, légèrement glandulaires-pubescentes à la base des filaments. Le stigmate blanc, glabre, capité, est légèrement bilobé. Le fruit est une capsule subglobuleuse, glabre ou pileuse, brun clair, composée de deux loges et 4 valves. Elle contient 4 graines subglobuleuses, triangulaires, brunes[3].
+L'inflorescence sous forme de cyme dichasiale ou monochasiale, portée par un pédoncule principal de 1,8 à 4,5 cm de long, regroupe de 1 à 5 fleurs. Les sépales inégaux, cartacés, verts ou violets, elliptiques à sublancéolés, ont 6 à 8 mm de long sur 2 à 3 mm de large. Les sépales externes, pileux, à 3 nervures saillantes, sont plus courts que les sépales internes, glabres et  fréquemment ciliés. La corolle, de couleur lilas, infundibuliforme à subcampanulée, fait de 1,2 à 1,4 cm de long. Les étamines, presque égales, incluses, de 7 à 9 mm de long, légèrement glandulaires-pubescentes à la base des filaments. Le stigmate blanc, glabre, capité, est légèrement bilobé. Le fruit est une capsule subglobuleuse, glabre ou pileuse, brun clair, composée de deux loges et 4 valves. Elle contient 4 graines subglobuleuses, triangulaires, brunes.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ipomoea_%C3%97leucantha</t>
+          <t>Ipomoea_×leucantha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition originelle d’Ipomoea ×leucantha comprend l'Alabama (États-Unis), le Mexique, le Guatemala et le Honduras.
-L'espèce a été introduite dans l'Arizona, en Amérique du Sud (Colombie, Brésil, Équateur, Venezuela), en Amérique centrale et dans les Caraïbes (Costa-Rica, Cuba, îles du Vent), à Hawaï ainsi qu'à Taïwan, aux Philippines[4].
+L'espèce a été introduite dans l'Arizona, en Amérique du Sud (Colombie, Brésil, Équateur, Venezuela), en Amérique centrale et dans les Caraïbes (Costa-Rica, Cuba, îles du Vent), à Hawaï ainsi qu'à Taïwan, aux Philippines.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ipomoea_%C3%97leucantha</t>
+          <t>Ipomoea_×leucantha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Synonymes
-Selon The Plant List            (2 octobre 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (2 octobre 2019) :
 Ipomoea batatas var. leucantha (Jacq.) Nishiyama
 Ipomoea lacunosa f. purpurata Fernald
 Ipomoea trifida var. ymalensis House</t>
